--- a/results/mp/logistic/corona/confidence/210/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,121 +40,130 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
+    <t>alert</t>
   </si>
   <si>
     <t>safety</t>
@@ -521,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L3">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>221</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9083333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L4">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M4">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6111111111111112</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,16 +720,16 @@
         <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5588235294117647</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +799,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5263157894736842</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>330</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8381201044386423</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +849,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4391534391534391</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C8">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +867,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8076923076923077</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>314</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>314</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +899,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3720930232558139</v>
+        <v>0.2483221476510067</v>
       </c>
       <c r="C9">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +917,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>324</v>
+        <v>112</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8055555555555556</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2013422818791946</v>
+        <v>0.09126984126984126</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +967,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8018867924528302</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L10">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="M10">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,21 +991,45 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.00676328502415459</v>
+      </c>
+      <c r="C11">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>0.09</v>
+      </c>
+      <c r="F11">
+        <v>0.91</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>3084</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1008,21 +1041,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.79375</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1034,21 +1067,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7878787878787878</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1060,47 +1093,47 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14">
+        <v>0.78125</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>28</v>
-      </c>
-      <c r="K14">
-        <v>0.7804878048780488</v>
-      </c>
-      <c r="L14">
-        <v>64</v>
-      </c>
-      <c r="M14">
-        <v>64</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1112,21 +1145,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7758620689655172</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1138,21 +1171,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7746478873239436</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1164,15 +1197,15 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.7446808510638298</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L18">
         <v>35</v>
@@ -1190,15 +1223,15 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L19">
         <v>34</v>
@@ -1216,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6785714285714286</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1242,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.675</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1268,21 +1301,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6744186046511628</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1294,21 +1327,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.6571428571428571</v>
+        <v>0.66</v>
       </c>
       <c r="L23">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1320,21 +1353,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1346,21 +1379,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.6349206349206349</v>
+        <v>0.65</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1372,21 +1405,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.6147058823529412</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L26">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M26">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1398,21 +1431,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.606694560669456</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L27">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="M27">
-        <v>145</v>
+        <v>54</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1424,21 +1457,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>94</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5830508474576271</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L28">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="M28">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1450,21 +1483,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.574468085106383</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L29">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="M29">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1476,12 +1509,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>0.5692307692307692</v>
@@ -1507,16 +1540,16 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5280898876404494</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1528,21 +1561,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.5142857142857142</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1554,47 +1587,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L33">
+        <v>42</v>
+      </c>
+      <c r="M33">
+        <v>42</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>47</v>
-      </c>
-      <c r="K33">
-        <v>0.4509803921568628</v>
-      </c>
-      <c r="L33">
-        <v>23</v>
-      </c>
-      <c r="M33">
-        <v>23</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>28</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.3013698630136986</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1606,21 +1639,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.2435897435897436</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1632,7 +1665,59 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>59</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="L36">
+        <v>25</v>
+      </c>
+      <c r="M36">
+        <v>25</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L37">
+        <v>24</v>
+      </c>
+      <c r="M37">
+        <v>24</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
